--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2597313.549784363</v>
+        <v>2594768.957090079</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.105228319</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>103.7427589056397</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.52558716632</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666375</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>158.2964914343835</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>13.45644170423153</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="U3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.52558716632</v>
+        <v>165.1725371760949</v>
       </c>
     </row>
     <row r="4">
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>52.21594625443453</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>52.2159462544349</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>359.4574688987975</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>12.25188473404937</v>
+        <v>12.25188473404938</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>92.85788772760046</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372555</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>110.911849507791</v>
       </c>
     </row>
     <row r="6">
@@ -972,25 +972,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>35.08586258363393</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.47037835246132</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074799</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>102.3007738059933</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>40.05337266685504</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.91115760589159</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>72.89889574100985</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>196.0145894426616</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.87073484362677</v>
+        <v>298.1850620697098</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1212,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1221,7 +1221,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>133.6773314608759</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1260,16 +1260,16 @@
         <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>188.7103072037899</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1278,7 +1278,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>31.68046530976816</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>185.62795066089</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>130.1208074460223</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,16 +1585,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238289</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>97.22826981530201</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>55.52079624060384</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>100.9410961977583</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206822</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>34.2105855891487</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2372,7 +2372,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>93.4044447618827</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>118.4817021252624</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>135.0949745400634</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703253</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2950,10 +2950,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3041,10 +3041,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3187,16 +3187,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>68.11883945937008</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>75.55208621972906</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>39.52129633183122</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3907,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505239</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>322.4426321268589</v>
+        <v>400.7871177554794</v>
       </c>
       <c r="C2" t="n">
-        <v>322.4426321268589</v>
+        <v>400.7871177554794</v>
       </c>
       <c r="D2" t="n">
-        <v>217.6519665656067</v>
+        <v>400.7871177554794</v>
       </c>
       <c r="E2" t="n">
-        <v>217.6519665656067</v>
+        <v>400.7871177554794</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912181</v>
+        <v>393.8416170062759</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>204.4218319897908</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678515</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058987</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644761</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123838</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985585</v>
+        <v>649.4845259985595</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020278</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262257</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="S2" t="n">
-        <v>511.8624171433438</v>
+        <v>590.2069027719645</v>
       </c>
       <c r="T2" t="n">
-        <v>511.8624171433438</v>
+        <v>400.7871177554794</v>
       </c>
       <c r="U2" t="n">
-        <v>511.8624171433438</v>
+        <v>400.7871177554794</v>
       </c>
       <c r="V2" t="n">
-        <v>511.8624171433438</v>
+        <v>400.7871177554794</v>
       </c>
       <c r="W2" t="n">
-        <v>511.8624171433438</v>
+        <v>400.7871177554794</v>
       </c>
       <c r="X2" t="n">
-        <v>511.8624171433438</v>
+        <v>400.7871177554794</v>
       </c>
       <c r="Y2" t="n">
-        <v>511.8624171433438</v>
+        <v>400.7871177554794</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>189.4550762544326</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K3" t="n">
         <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140251</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546605</v>
+        <v>512.500058754661</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476359</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.5989987017076</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="R3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="S3" t="n">
-        <v>736.5099833074704</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="T3" t="n">
-        <v>736.5099833074704</v>
+        <v>560.6825636487961</v>
       </c>
       <c r="U3" t="n">
-        <v>547.0901982909855</v>
+        <v>560.6825636487961</v>
       </c>
       <c r="V3" t="n">
-        <v>547.0901982909855</v>
+        <v>560.6825636487961</v>
       </c>
       <c r="W3" t="n">
-        <v>547.0901982909855</v>
+        <v>371.2627786323109</v>
       </c>
       <c r="X3" t="n">
-        <v>547.0901982909855</v>
+        <v>181.8429936158258</v>
       </c>
       <c r="Y3" t="n">
-        <v>357.6704132745007</v>
+        <v>15.00204697330562</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230179</v>
+        <v>27.0396705623019</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170723</v>
+        <v>42.98993985170745</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396343</v>
+        <v>66.41847329396374</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829038</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829038</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829038</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829038</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829038</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829038</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330562</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>416.9675506344935</v>
+        <v>1221.324840049604</v>
       </c>
       <c r="C5" t="n">
-        <v>416.9675506344935</v>
+        <v>1221.324840049604</v>
       </c>
       <c r="D5" t="n">
-        <v>416.9675506344935</v>
+        <v>863.0591414428534</v>
       </c>
       <c r="E5" t="n">
-        <v>53.87919821146578</v>
+        <v>863.0591414428534</v>
       </c>
       <c r="F5" t="n">
-        <v>46.9336974622623</v>
+        <v>452.0732366532459</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675788</v>
+        <v>439.6975955077415</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675788</v>
+        <v>128.3539025062531</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675788</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="J5" t="n">
-        <v>111.670553901723</v>
+        <v>111.6705539017216</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166747</v>
+        <v>277.9807166746972</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030798</v>
+        <v>521.2049416030756</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709236</v>
+        <v>823.5081935709172</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582759</v>
+        <v>1135.316836582751</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079248</v>
+        <v>1416.413635079239</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332767</v>
+        <v>1621.822248332757</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837894</v>
+        <v>1727.902815837883</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.902815837894</v>
+        <v>1727.902815837883</v>
       </c>
       <c r="S5" t="n">
-        <v>1727.902815837894</v>
+        <v>1586.994975598231</v>
       </c>
       <c r="T5" t="n">
-        <v>1727.902815837894</v>
+        <v>1586.994975598231</v>
       </c>
       <c r="U5" t="n">
-        <v>1474.264851509258</v>
+        <v>1333.357011269595</v>
       </c>
       <c r="V5" t="n">
-        <v>1143.201964165688</v>
+        <v>1333.357011269595</v>
       </c>
       <c r="W5" t="n">
-        <v>790.4333088955734</v>
+        <v>1333.357011269595</v>
       </c>
       <c r="X5" t="n">
-        <v>416.9675506344935</v>
+        <v>1333.357011269595</v>
       </c>
       <c r="Y5" t="n">
-        <v>416.9675506344935</v>
+        <v>1221.324840049604</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>504.4800532322512</v>
+        <v>291.240337940861</v>
       </c>
       <c r="C6" t="n">
-        <v>330.0270239511242</v>
+        <v>291.240337940861</v>
       </c>
       <c r="D6" t="n">
-        <v>181.0926142898729</v>
+        <v>291.240337940861</v>
       </c>
       <c r="E6" t="n">
-        <v>181.0926142898729</v>
+        <v>132.0028829354055</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675788</v>
+        <v>132.0028829354055</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675788</v>
+        <v>132.0028829354055</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675788</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675788</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787595</v>
+        <v>61.66788464787527</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806077</v>
+        <v>186.1577239806062</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171190002</v>
+        <v>399.8722171189977</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223535</v>
+        <v>668.6238185223499</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352526</v>
+        <v>958.8971200352478</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228324</v>
+        <v>1202.220686228319</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639515</v>
+        <v>1378.176233639508</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906556</v>
+        <v>1445.878660906549</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906556</v>
+        <v>1401.100270703773</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906556</v>
+        <v>1401.100270703773</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.878660906556</v>
+        <v>1205.559652423528</v>
       </c>
       <c r="U6" t="n">
-        <v>1445.878660906556</v>
+        <v>977.4445103790844</v>
       </c>
       <c r="V6" t="n">
-        <v>1342.544545951007</v>
+        <v>742.2924021473416</v>
       </c>
       <c r="W6" t="n">
-        <v>1088.307189222806</v>
+        <v>742.2924021473416</v>
       </c>
       <c r="X6" t="n">
-        <v>880.455689017273</v>
+        <v>534.4409019418088</v>
       </c>
       <c r="Y6" t="n">
-        <v>672.6953902523192</v>
+        <v>326.6806031768548</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.8190495858038</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="C7" t="n">
-        <v>329.3610973970614</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="D7" t="n">
-        <v>329.3610973970614</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="E7" t="n">
-        <v>181.4480038146683</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675788</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675788</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675788</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675788</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675788</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574755</v>
+        <v>64.24066662574685</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584127</v>
+        <v>132.1299861584114</v>
       </c>
       <c r="M7" t="n">
-        <v>206.968037834799</v>
+        <v>206.968037834797</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195391</v>
+        <v>287.8841338195365</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934747</v>
+        <v>342.3101561934715</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858038</v>
+        <v>369.8190495858002</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858038</v>
+        <v>332.5350520040915</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858038</v>
+        <v>258.8998037808493</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858038</v>
+        <v>258.8998037808493</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495858038</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495858038</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495858038</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8190495858038</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8190495858038</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8190495858038</v>
+        <v>34.55805631675766</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1408.394228579451</v>
+        <v>709.7774282876933</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.399693788884</v>
+        <v>709.7774282876933</v>
       </c>
       <c r="D8" t="n">
-        <v>852.1339951821335</v>
+        <v>351.5117296809428</v>
       </c>
       <c r="E8" t="n">
-        <v>466.3457425838893</v>
+        <v>351.5117296809428</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428172</v>
+        <v>344.5662289317393</v>
       </c>
       <c r="G8" t="n">
         <v>43.36919653809306</v>
@@ -4802,13 +4802,13 @@
         <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.50781843019</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711866</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
@@ -4829,25 +4829,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904653</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="V8" t="n">
-        <v>2168.459826904653</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="W8" t="n">
-        <v>2168.459826904653</v>
+        <v>1473.382518524585</v>
       </c>
       <c r="X8" t="n">
-        <v>1794.994068643573</v>
+        <v>1099.916760263505</v>
       </c>
       <c r="Y8" t="n">
-        <v>1794.994068643573</v>
+        <v>709.7774282876933</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>661.0216980221651</v>
+        <v>351.5410612047998</v>
       </c>
       <c r="C9" t="n">
-        <v>486.5686687410381</v>
+        <v>351.5410612047998</v>
       </c>
       <c r="D9" t="n">
-        <v>337.6342590797868</v>
+        <v>202.6066515435486</v>
       </c>
       <c r="E9" t="n">
-        <v>178.3968040743313</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F9" t="n">
         <v>43.36919653809306</v>
@@ -4908,25 +4908,25 @@
         <v>1734.238298972664</v>
       </c>
       <c r="S9" t="n">
-        <v>1734.238298972664</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T9" t="n">
-        <v>1734.238298972664</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U9" t="n">
-        <v>1734.238298972664</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="V9" t="n">
-        <v>1499.086190740921</v>
+        <v>981.8452551586022</v>
       </c>
       <c r="W9" t="n">
-        <v>1244.84883401272</v>
+        <v>727.6078984304006</v>
       </c>
       <c r="X9" t="n">
-        <v>1036.997333807187</v>
+        <v>519.7563982248678</v>
       </c>
       <c r="Y9" t="n">
-        <v>829.2370350422332</v>
+        <v>519.7563982248678</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C10" t="n">
-        <v>488.2888770307322</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D10" t="n">
-        <v>338.1722376183965</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2591440360034</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F10" t="n">
         <v>43.36919653809306</v>
@@ -4996,16 +4996,16 @@
         <v>520.2893470405991</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470405991</v>
+        <v>332.7863665750536</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5045,19 +5045,19 @@
         <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5066,25 +5066,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>228.9331431646415</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143764</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1113.119525808646</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808646</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,31 +5270,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637304</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327643</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048574</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D16" t="n">
-        <v>444.7013164925216</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E16" t="n">
-        <v>296.7882229101285</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>149.8982754122182</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5461,25 +5461,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.402603663004</v>
+        <v>881.3796452313798</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5495,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5519,31 +5519,31 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793924</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348531</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2299.457522348531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5750,19 +5750,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,7 +5786,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.7084350851671</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>527.7722521572603</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>377.6556127449245</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E22" t="n">
-        <v>377.6556127449245</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F22" t="n">
-        <v>377.6556127449245</v>
+        <v>265.0731740618515</v>
       </c>
       <c r="G22" t="n">
-        <v>210.4595134598044</v>
+        <v>97.87707477673149</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>97.87707477673149</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154069</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6066,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597619</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F25" t="n">
-        <v>411.9631215597619</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6306,16 +6306,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400699</v>
+        <v>695.5020655703091</v>
       </c>
       <c r="C28" t="n">
-        <v>344.917417812163</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D28" t="n">
-        <v>344.917417812163</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E28" t="n">
-        <v>344.917417812163</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>344.917417812163</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,16 +6382,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.052681478294</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038326</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797726</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570816</v>
@@ -6400,7 +6400,7 @@
         <v>2035.089393279801</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.963083580259</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832661</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W28" t="n">
         <v>1144.284195611857</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138397</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703096</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,31 +6458,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6598,22 +6598,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6689,28 +6689,28 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6780,25 +6780,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
         <v>402.7245934908939</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1619.578945309888</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1330.161775272927</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1102.17222437491</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>881.3796452313798</v>
       </c>
     </row>
     <row r="35">
@@ -6917,52 +6917,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192741</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708873</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.395944601127</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7251,19 +7251,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7409,19 +7409,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7491,25 +7491,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.917417812163</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.917417812163</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>198.0274703142526</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7582,37 +7582,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7646,52 +7646,52 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,22 +7719,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.584050252739</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K45" t="n">
-        <v>95.584050252739</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L45" t="n">
-        <v>95.584050252739</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438179</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7801,16 +7801,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>16.31315520054687</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012267</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>128.4813855737351</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>117.6435571543365</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>106.0841272570752</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>77.24602870709352</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>72.11969353038614</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>21.81301072096153</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>32.15184655856439</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194358</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,16 +25075,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>184.0188038644579</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>70.88187642684011</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>143.6212754172165</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>780817.9809007893</v>
+        <v>780817.980900789</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>780817.9809007891</v>
+        <v>780817.980900789</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>780817.980900789</v>
+        <v>780817.9809007891</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>780817.980900789</v>
+        <v>780817.9809007891</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="F2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="J2" t="n">
         <v>645717.2797520048</v>
       </c>
       <c r="K2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="L2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="M2" t="n">
         <v>645717.2797520049</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.2797520048</v>
       </c>
       <c r="N2" t="n">
         <v>645717.2797520048</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520049</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208459</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253149</v>
+        <v>270592.3620253115</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231904</v>
+        <v>115410.0540231932</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742648</v>
+        <v>601443.2075742652</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,19 +26381,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854471</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765882034</v>
+        <v>62913.63765881953</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197425</v>
+        <v>27875.25362197494</v>
       </c>
       <c r="M3" t="n">
         <v>157146.380551598</v>
@@ -26418,25 +26418,25 @@
         <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263455</v>
+        <v>206604.4229263463</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186737</v>
+        <v>14826.69604186734</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186737</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
         <v>14826.69604186736</v>
@@ -26448,7 +26448,7 @@
         <v>14826.69604186738</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="N4" t="n">
         <v>14826.69604186736</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.8004116136</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936837</v>
+        <v>76435.73471936815</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-270045.8518751623</v>
+        <v>-270045.8518751626</v>
       </c>
       <c r="C6" t="n">
-        <v>103200.8962203977</v>
+        <v>103200.8962204009</v>
       </c>
       <c r="D6" t="n">
-        <v>282021.2899234663</v>
+        <v>282021.2899234632</v>
       </c>
       <c r="E6" t="n">
-        <v>-71675.15368803458</v>
+        <v>-71709.89161347046</v>
       </c>
       <c r="F6" t="n">
-        <v>529768.0538862305</v>
+        <v>529733.3159607948</v>
       </c>
       <c r="G6" t="n">
-        <v>529768.0538862302</v>
+        <v>529733.3159607948</v>
       </c>
       <c r="H6" t="n">
-        <v>529768.0538862302</v>
+        <v>529733.3159607948</v>
       </c>
       <c r="I6" t="n">
-        <v>529768.0538862305</v>
+        <v>529733.315960795</v>
       </c>
       <c r="J6" t="n">
-        <v>480703.1091576856</v>
+        <v>480668.3712322499</v>
       </c>
       <c r="K6" t="n">
-        <v>466854.41622741</v>
+        <v>466819.6783019749</v>
       </c>
       <c r="L6" t="n">
-        <v>501892.800264256</v>
+        <v>501858.0623388198</v>
       </c>
       <c r="M6" t="n">
-        <v>372621.6733346322</v>
+        <v>372586.9354091967</v>
       </c>
       <c r="N6" t="n">
-        <v>529768.0538862303</v>
+        <v>529733.3159607947</v>
       </c>
       <c r="O6" t="n">
-        <v>529768.0538862303</v>
+        <v>529733.3159607946</v>
       </c>
       <c r="P6" t="n">
-        <v>529768.0538862305</v>
+        <v>529733.3159607948</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.469940912905</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950636</v>
+        <v>758.8996292950613</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594735</v>
+        <v>431.9757039594707</v>
       </c>
       <c r="D4" t="n">
         <v>542.1149567261632</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.469940912905</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821589</v>
+        <v>210.4296883821563</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262051</v>
+        <v>94.81103524262278</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039894</v>
+        <v>514.2648358039896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931535</v>
+        <v>244.4501167931504</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666897</v>
+        <v>110.1392527666925</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734849</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931535</v>
+        <v>244.4501167931504</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666897</v>
+        <v>110.1392527666924</v>
       </c>
       <c r="M4" t="n">
         <v>630.5933313734852</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931535</v>
+        <v>244.4501167931504</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666897</v>
+        <v>110.1392527666925</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734849</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971606</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>250.9402827150432</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753914</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>225.5722460637377</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>129.368238939902</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666367</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.4793217556695311</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988648</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27476,10 +27476,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>58.90455890409146</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265831</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846319</v>
+        <v>72.43289562846313</v>
       </c>
       <c r="S3" t="n">
-        <v>136.3138029867181</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>7.884010625680929</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377091</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459931</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715718</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098435</v>
+        <v>40.51015860120941</v>
       </c>
     </row>
     <row r="4">
@@ -27546,22 +27546,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>93.20510176849672</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>153.4336708318195</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>125.7072197708666</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825415</v>
+        <v>57.06999962825411</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>14.10430989402843</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,13 +27576,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709383</v>
+        <v>18.10760906709376</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159723</v>
+        <v>68.68604055159719</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>132.8223696106903</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27591,7 +27591,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>234.0491352390154</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>22.47290117346432</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714734</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.8578877276001</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425858</v>
+        <v>23.94240680425915</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372553</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>209.7407415149288</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>275.3260891482626</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>131.4473210662334</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246127</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937499</v>
+        <v>43.32085084937516</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,22 +27740,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843605</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>130.499813343432</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>127.1934484317728</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.6224718302218</v>
@@ -27792,10 +27792,10 @@
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.2957212599129</v>
+        <v>114.295721259913</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304022</v>
+        <v>30.24193919304052</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589123</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166222</v>
+        <v>42.86142077561254</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130602</v>
+        <v>200.1672441130603</v>
       </c>
       <c r="T7" t="n">
-        <v>222.0983299894507</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913143</v>
+        <v>286.2443834913144</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>169.258302328346</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>113.685672773917</v>
       </c>
       <c r="H8" t="n">
         <v>304.326804756183</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27932,7 +27932,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27941,7 +27941,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>11.391880932508</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>135.5072338470353</v>
@@ -27980,16 +27980,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>44.09027994563542</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>135.5663557888597</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28068,10 +28068,10 @@
         <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>66.50969266293805</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>7.394985773160066e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29761,10 +29761,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30654,7 +30654,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077003</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954487</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043125</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528641</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672895</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470276</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470027</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622682</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244297</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151094</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974685</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619227</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924588</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.61782109590854</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405035</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975332</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829656</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292676</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628874</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550082</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.91292641288822</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820373</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390168</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445827</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620023</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639164</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.925421811142</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.0438920276992</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604416</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820539</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784866</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.47102176647913</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181398</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061366</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.05085278108568</v>
+        <v>3.050852781085672</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429373</v>
+        <v>31.24454604429364</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428058</v>
+        <v>117.6180018428055</v>
       </c>
       <c r="J5" t="n">
-        <v>258.937316228671</v>
+        <v>258.9373162286702</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520279</v>
+        <v>388.0799144520268</v>
       </c>
       <c r="L5" t="n">
-        <v>481.447450251179</v>
+        <v>481.4474502511775</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968114</v>
+        <v>535.7030533968098</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610711</v>
+        <v>544.3712888610695</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191503</v>
+        <v>514.0343715191489</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860975</v>
+        <v>438.7164434860962</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634665</v>
+        <v>329.4577782634655</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098735</v>
+        <v>191.643131009873</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774899001</v>
+        <v>69.52130774898981</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920257</v>
+        <v>13.35510804920253</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868544</v>
+        <v>0.2440682224868537</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030892</v>
+        <v>1.632350146030887</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403519</v>
+        <v>15.76506588403515</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062501</v>
+        <v>56.20152915062484</v>
       </c>
       <c r="J6" t="n">
-        <v>154.221291647594</v>
+        <v>154.2212916475936</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316638</v>
+        <v>263.588751431663</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721899</v>
+        <v>354.4276051721888</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658096</v>
+        <v>413.6002979658084</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468677</v>
+        <v>424.5470671468665</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374464</v>
+        <v>388.3776244374452</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872498</v>
+        <v>311.7072835872489</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547503</v>
+        <v>208.3680642547497</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632163</v>
+        <v>101.348897663216</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947729</v>
+        <v>30.3201880194772</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378898</v>
+        <v>6.579516597378879</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757166</v>
+        <v>0.1073914569757163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528237</v>
+        <v>1.368507528236996</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377988</v>
+        <v>12.16727602377984</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734542</v>
+        <v>41.1547536673453</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635589</v>
+        <v>96.75348224635559</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260805</v>
+        <v>158.99569282608</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162536</v>
+        <v>203.459746516253</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399144</v>
+        <v>214.5197755399138</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528494</v>
+        <v>209.4189747528488</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275353</v>
+        <v>193.4323186275347</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650515003</v>
+        <v>165.5147650514999</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235546</v>
+        <v>114.5938440235543</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054727</v>
+        <v>61.53307486054708</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391207</v>
+        <v>23.849353923912</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830816</v>
+        <v>5.847259438830799</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656371</v>
+        <v>0.07464586517656349</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31838,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>263.3189197138078</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565771</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>290.6810969936925</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,28 +32309,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>390.1398273256881</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,10 +32339,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,7 +32786,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>483.3274636075166</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,19 +33026,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O27" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33263,10 +33263,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>550.5977692975241</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,28 +33500,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>535.8585467435948</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33898,7 +33898,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33971,22 +33971,22 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34211,7 +34211,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,40 +34442,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>218.6425359394819</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>732.482598761492</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868222</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788355</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.1840179973023</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197549</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504118</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405815</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.83499656916013</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065995</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781483</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.5966053606293</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755149</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848231</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855714</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440765007</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.1592157464608</v>
+        <v>12.15921574646089</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061155</v>
+        <v>16.11138312061166</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520829</v>
+        <v>23.66518529520837</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400552</v>
+        <v>1.340357307400637</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198474</v>
+        <v>77.89141170198394</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070474</v>
+        <v>167.9900634070463</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811917</v>
+        <v>245.6810352811902</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695387</v>
+        <v>305.3568201695371</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644802</v>
+        <v>314.9582252644786</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974636</v>
+        <v>283.9361600974621</v>
       </c>
       <c r="P5" t="n">
-        <v>207.483447730828</v>
+        <v>207.4834477308267</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890171</v>
+        <v>107.152088389016</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092734</v>
+        <v>27.38366498092688</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573048</v>
+        <v>125.747312457304</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923157</v>
+        <v>215.8732253923146</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437913</v>
+        <v>271.46626404379</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635344</v>
+        <v>293.2053550635331</v>
       </c>
       <c r="O6" t="n">
-        <v>245.781379993002</v>
+        <v>245.7813799930008</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729196</v>
+        <v>177.7328761729187</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872881</v>
+        <v>68.38629016872818</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554512</v>
+        <v>29.98243465554464</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501535</v>
+        <v>68.57507023501472</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230935</v>
+        <v>75.5939915923087</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761622</v>
+        <v>81.73343028761559</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569251</v>
+        <v>54.97578017569191</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235273</v>
+        <v>27.78676100235225</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>136.4812930471411</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121327</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>159.3393849103592</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>256.1654199113578</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>566.8045140811964</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>340.7312191630721</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,19 +36674,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O27" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295167</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36762,7 +36762,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899057</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060454</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>416.6233618831939</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37859,7 +37859,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060437</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>590.3485648394736</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38181,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
